--- a/.docs/Буквы RU.xlsx
+++ b/.docs/Буквы RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\met-chars\.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9F78E2-60BA-4F5D-978E-3AF68879C929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF19C7F-618F-4972-8CE5-5B61E6DCB2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{01709E62-2A40-4EF9-8044-E2CA8AF28C9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>А</t>
   </si>
@@ -124,13 +124,27 @@
   </si>
   <si>
     <t>Я</t>
+  </si>
+  <si>
+    <r>
+      <t>Met Chars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Montserrat"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> - RU</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +160,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,11 +208,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +306,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2450A58B-1C65-41CA-AFD8-1B054999AFC5}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
@@ -521,230 +654,244 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="7">
         <v>13</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="7">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="7">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="7">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="7">
         <v>19</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="7">
         <v>20</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G9" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B11" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="7">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D11" s="7">
         <v>32</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E11" s="7">
         <v>33</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>